--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03431932055760714</v>
+        <v>-0.0253360835587989</v>
       </c>
       <c r="C2">
-        <v>1.149481140906254</v>
+        <v>1.135698984415373</v>
       </c>
       <c r="D2">
-        <v>7.757582386797717</v>
+        <v>7.612000487694052</v>
       </c>
       <c r="E2">
-        <v>2.785243685352813</v>
+        <v>2.758985409112207</v>
       </c>
       <c r="F2">
-        <v>2.812744684903851</v>
+        <v>2.78578550780152</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.083795875988065</v>
+        <v>0.08600705238178873</v>
       </c>
       <c r="C3">
-        <v>1.14164642350028</v>
+        <v>1.123115432295725</v>
       </c>
       <c r="D3">
-        <v>5.7207270743778</v>
+        <v>5.609313565901017</v>
       </c>
       <c r="E3">
-        <v>2.391804146325071</v>
+        <v>2.368398945680608</v>
       </c>
       <c r="F3">
-        <v>2.414603809464146</v>
+        <v>2.390387976856151</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03348721307487063</v>
+        <v>0.0363203761572407</v>
       </c>
       <c r="C4">
-        <v>0.9855442910522569</v>
+        <v>0.9693363125750792</v>
       </c>
       <c r="D4">
-        <v>4.47967683057515</v>
+        <v>4.390696811956634</v>
       </c>
       <c r="E4">
-        <v>2.11652470587403</v>
+        <v>2.095398962478658</v>
       </c>
       <c r="F4">
-        <v>2.138190514292234</v>
+        <v>2.116354596420031</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1227182285050751</v>
+        <v>0.1260652424010658</v>
       </c>
       <c r="C5">
-        <v>1.047750934253277</v>
+        <v>1.03221972966461</v>
       </c>
       <c r="D5">
-        <v>5.08066817148431</v>
+        <v>4.978658809889423</v>
       </c>
       <c r="E5">
-        <v>2.254033755622198</v>
+        <v>2.231290839377382</v>
       </c>
       <c r="F5">
-        <v>2.274508146868711</v>
+        <v>2.25081259337064</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08018738978689519</v>
+        <v>0.08428106382731648</v>
       </c>
       <c r="C6">
-        <v>1.023488330645639</v>
+        <v>1.007929901751503</v>
       </c>
       <c r="D6">
-        <v>5.20198323070215</v>
+        <v>5.095203452855081</v>
       </c>
       <c r="E6">
-        <v>2.280785660841928</v>
+        <v>2.257255734925726</v>
       </c>
       <c r="F6">
-        <v>2.304018233913175</v>
+        <v>2.27955206241149</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09170227497563151</v>
+        <v>0.09619512034022865</v>
       </c>
       <c r="C7">
-        <v>1.15614023276074</v>
+        <v>1.131065357075751</v>
       </c>
       <c r="D7">
-        <v>5.912176488049644</v>
+        <v>5.749733647272278</v>
       </c>
       <c r="E7">
-        <v>2.431496758798918</v>
+        <v>2.397860222630226</v>
       </c>
       <c r="F7">
-        <v>2.465239824441904</v>
+        <v>2.42991643159901</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1341092652864367</v>
+        <v>0.1381149580396931</v>
       </c>
       <c r="C8">
-        <v>1.214274493381182</v>
+        <v>1.187418322474588</v>
       </c>
       <c r="D8">
-        <v>6.074474993297437</v>
+        <v>5.903068426619335</v>
       </c>
       <c r="E8">
-        <v>2.464645003504041</v>
+        <v>2.4296231038207</v>
       </c>
       <c r="F8">
-        <v>2.498003140333932</v>
+        <v>2.461107737049912</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1300779319302387</v>
+        <v>0.1382699113425551</v>
       </c>
       <c r="C9">
-        <v>1.637969704616452</v>
+        <v>1.562389918879535</v>
       </c>
       <c r="D9">
-        <v>10.40515603946197</v>
+        <v>9.831370974918348</v>
       </c>
       <c r="E9">
-        <v>3.225702410245244</v>
+        <v>3.135501710240061</v>
       </c>
       <c r="F9">
-        <v>3.322273394346054</v>
+        <v>3.223266002762909</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.8151855276054091</v>
+        <v>-0.7150897714758779</v>
       </c>
       <c r="C10">
-        <v>1.447268835965774</v>
+        <v>1.341686922679743</v>
       </c>
       <c r="D10">
-        <v>7.295136052065959</v>
+        <v>6.639370992174167</v>
       </c>
       <c r="E10">
-        <v>2.700950953287741</v>
+        <v>2.576697691265735</v>
       </c>
       <c r="F10">
-        <v>2.71428496981938</v>
+        <v>2.596308797503721</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5209010662194005</v>
+        <v>0.5440079918808879</v>
       </c>
       <c r="C2">
-        <v>0.5284173549292553</v>
+        <v>0.5440079918808879</v>
       </c>
       <c r="D2">
-        <v>0.3633847247877238</v>
+        <v>0.3686258812966464</v>
       </c>
       <c r="E2">
-        <v>0.6028140051356835</v>
+        <v>0.6071456837503223</v>
       </c>
       <c r="F2">
-        <v>0.3140407230176452</v>
+        <v>0.2797714183633027</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3491358409449706</v>
+        <v>0.371620442828777</v>
       </c>
       <c r="C3">
-        <v>0.3876299128740889</v>
+        <v>0.3874993246909071</v>
       </c>
       <c r="D3">
-        <v>0.2064515430844597</v>
+        <v>0.1981274257140365</v>
       </c>
       <c r="E3">
-        <v>0.4543693905672561</v>
+        <v>0.4451150701942549</v>
       </c>
       <c r="F3">
-        <v>0.3017614833873206</v>
+        <v>0.2550055127533425</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2766139601088831</v>
+        <v>0.3184154172361096</v>
       </c>
       <c r="C4">
-        <v>0.3205523163110667</v>
+        <v>0.3634107558758037</v>
       </c>
       <c r="D4">
-        <v>0.1530262537301577</v>
+        <v>0.1745848588293675</v>
       </c>
       <c r="E4">
-        <v>0.3911857023590685</v>
+        <v>0.4178335300444035</v>
       </c>
       <c r="F4">
-        <v>0.287900825001641</v>
+        <v>0.2825786729951437</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4245700094424397</v>
+        <v>0.3975283727593981</v>
       </c>
       <c r="C5">
-        <v>0.4393557528778729</v>
+        <v>0.4145492339343189</v>
       </c>
       <c r="D5">
-        <v>0.2414648368369625</v>
+        <v>0.2091250642104284</v>
       </c>
       <c r="E5">
-        <v>0.4913907170846459</v>
+        <v>0.4573019398717093</v>
       </c>
       <c r="F5">
-        <v>0.2583974611168742</v>
+        <v>0.2370777989771771</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3793378286036473</v>
+        <v>0.3560805627268342</v>
       </c>
       <c r="C6">
-        <v>0.4013254374874798</v>
+        <v>0.3805953001122874</v>
       </c>
       <c r="D6">
-        <v>0.2006046709917273</v>
+        <v>0.1781696942431756</v>
       </c>
       <c r="E6">
-        <v>0.4478891280124215</v>
+        <v>0.4221015212519088</v>
       </c>
       <c r="F6">
-        <v>0.2497563433833</v>
+        <v>0.2389242722689363</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3288324600564539</v>
+        <v>0.3392710727664942</v>
       </c>
       <c r="C7">
-        <v>0.3601674043196504</v>
+        <v>0.3699241520168967</v>
       </c>
       <c r="D7">
-        <v>0.1589310008397884</v>
+        <v>0.1693631219851699</v>
       </c>
       <c r="E7">
-        <v>0.3986615116107754</v>
+        <v>0.4115375098155329</v>
       </c>
       <c r="F7">
-        <v>0.2375808962882351</v>
+        <v>0.2470638456253208</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3582448599611742</v>
+        <v>0.352534700000344</v>
       </c>
       <c r="C8">
-        <v>0.3844285013741874</v>
+        <v>0.3776340216059933</v>
       </c>
       <c r="D8">
-        <v>0.1824260236518181</v>
+        <v>0.1795390275838225</v>
       </c>
       <c r="E8">
-        <v>0.427113595723454</v>
+        <v>0.4237204592462139</v>
       </c>
       <c r="F8">
-        <v>0.2466728085108265</v>
+        <v>0.251301328242729</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4602904635456296</v>
+        <v>0.323074747095869</v>
       </c>
       <c r="C9">
-        <v>0.4602904635456296</v>
+        <v>0.3439312876808158</v>
       </c>
       <c r="D9">
-        <v>0.2367358528406057</v>
+        <v>0.1492574881197667</v>
       </c>
       <c r="E9">
-        <v>0.4865550871593121</v>
+        <v>0.3863385666999435</v>
       </c>
       <c r="F9">
-        <v>0.1727490967023163</v>
+        <v>0.2288235751843726</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3684953970074996</v>
+        <v>0.3581453753460085</v>
       </c>
       <c r="C10">
-        <v>0.3684953970074996</v>
+        <v>0.3775233390900978</v>
       </c>
       <c r="D10">
-        <v>0.15310089540861</v>
+        <v>0.1783793918318441</v>
       </c>
       <c r="E10">
-        <v>0.3912810951331663</v>
+        <v>0.4223498453081807</v>
       </c>
       <c r="F10">
-        <v>0.1611460725222393</v>
+        <v>0.2452214067738235</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.570669944985061</v>
+        <v>0.3599616089605324</v>
       </c>
       <c r="C11">
-        <v>0.570669944985061</v>
+        <v>0.3766256120414225</v>
       </c>
       <c r="D11">
-        <v>0.3256641861092525</v>
+        <v>0.1882494404226522</v>
       </c>
       <c r="E11">
-        <v>0.570669944985061</v>
+        <v>0.4338772181420132</v>
+      </c>
+      <c r="F11">
+        <v>0.2708253138491602</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5440079918808879</v>
+        <v>0.5209010662194005</v>
       </c>
       <c r="C2">
-        <v>0.5440079918808879</v>
+        <v>0.5284173549292553</v>
       </c>
       <c r="D2">
-        <v>0.3686258812966464</v>
+        <v>0.3633847247877238</v>
       </c>
       <c r="E2">
-        <v>0.6071456837503223</v>
+        <v>0.6028140051356835</v>
       </c>
       <c r="F2">
-        <v>0.2797714183633027</v>
+        <v>0.3140407230176452</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.371620442828777</v>
+        <v>0.3491358409449706</v>
       </c>
       <c r="C3">
-        <v>0.3874993246909071</v>
+        <v>0.3876299128740889</v>
       </c>
       <c r="D3">
-        <v>0.1981274257140365</v>
+        <v>0.2064515430844597</v>
       </c>
       <c r="E3">
-        <v>0.4451150701942549</v>
+        <v>0.4543693905672561</v>
       </c>
       <c r="F3">
-        <v>0.2550055127533425</v>
+        <v>0.3017614833873206</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3184154172361096</v>
+        <v>0.2766139601088831</v>
       </c>
       <c r="C4">
-        <v>0.3634107558758037</v>
+        <v>0.3205523163110667</v>
       </c>
       <c r="D4">
-        <v>0.1745848588293675</v>
+        <v>0.1530262537301577</v>
       </c>
       <c r="E4">
-        <v>0.4178335300444035</v>
+        <v>0.3911857023590685</v>
       </c>
       <c r="F4">
-        <v>0.2825786729951437</v>
+        <v>0.287900825001641</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3975283727593981</v>
+        <v>0.4245700094424397</v>
       </c>
       <c r="C5">
-        <v>0.4145492339343189</v>
+        <v>0.4393557528778729</v>
       </c>
       <c r="D5">
-        <v>0.2091250642104284</v>
+        <v>0.2414648368369625</v>
       </c>
       <c r="E5">
-        <v>0.4573019398717093</v>
+        <v>0.4913907170846459</v>
       </c>
       <c r="F5">
-        <v>0.2370777989771771</v>
+        <v>0.2583974611168742</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3560805627268342</v>
+        <v>0.3793378286036473</v>
       </c>
       <c r="C6">
-        <v>0.3805953001122874</v>
+        <v>0.4013254374874798</v>
       </c>
       <c r="D6">
-        <v>0.1781696942431756</v>
+        <v>0.2006046709917273</v>
       </c>
       <c r="E6">
-        <v>0.4221015212519088</v>
+        <v>0.4478891280124215</v>
       </c>
       <c r="F6">
-        <v>0.2389242722689363</v>
+        <v>0.2497563433833</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3392710727664942</v>
+        <v>0.3288324600564539</v>
       </c>
       <c r="C7">
-        <v>0.3699241520168967</v>
+        <v>0.3601674043196504</v>
       </c>
       <c r="D7">
-        <v>0.1693631219851699</v>
+        <v>0.1589310008397884</v>
       </c>
       <c r="E7">
-        <v>0.4115375098155329</v>
+        <v>0.3986615116107754</v>
       </c>
       <c r="F7">
-        <v>0.2470638456253208</v>
+        <v>0.2375808962882351</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.352534700000344</v>
+        <v>0.3582448599611742</v>
       </c>
       <c r="C8">
-        <v>0.3776340216059933</v>
+        <v>0.3844285013741874</v>
       </c>
       <c r="D8">
-        <v>0.1795390275838225</v>
+        <v>0.1824260236518181</v>
       </c>
       <c r="E8">
-        <v>0.4237204592462139</v>
+        <v>0.427113595723454</v>
       </c>
       <c r="F8">
-        <v>0.251301328242729</v>
+        <v>0.2466728085108265</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.323074747095869</v>
+        <v>0.3532650510030724</v>
       </c>
       <c r="C9">
-        <v>0.3439312876808158</v>
+        <v>0.381336062820872</v>
       </c>
       <c r="D9">
-        <v>0.1492574881197667</v>
+        <v>0.1830290214229363</v>
       </c>
       <c r="E9">
-        <v>0.3863385666999435</v>
+        <v>0.4278189119509986</v>
       </c>
       <c r="F9">
-        <v>0.2288235751843726</v>
+        <v>0.257976355866154</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3581453753460085</v>
+        <v>0.3173063146244254</v>
       </c>
       <c r="C10">
-        <v>0.3775233390900978</v>
+        <v>0.3418763137882747</v>
       </c>
       <c r="D10">
-        <v>0.1783793918318441</v>
+        <v>0.1463084296434522</v>
       </c>
       <c r="E10">
-        <v>0.4223498453081807</v>
+        <v>0.3825028491965154</v>
       </c>
       <c r="F10">
-        <v>0.2452214067738235</v>
+        <v>0.2307148046110977</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3599616089605324</v>
+        <v>0.3606037648954714</v>
       </c>
       <c r="C11">
-        <v>0.3766256120414225</v>
+        <v>0.379698193710172</v>
       </c>
       <c r="D11">
-        <v>0.1882494404226522</v>
+        <v>0.1799938953220499</v>
       </c>
       <c r="E11">
-        <v>0.4338772181420132</v>
+        <v>0.4242568742189688</v>
       </c>
       <c r="F11">
-        <v>0.2708253138491602</v>
+        <v>0.2448480836729456</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5209010662194005</v>
+        <v>-0.0253360835587989</v>
       </c>
       <c r="C2">
-        <v>0.5284173549292553</v>
+        <v>1.135698984415373</v>
       </c>
       <c r="D2">
-        <v>0.3633847247877238</v>
+        <v>7.612000487694052</v>
       </c>
       <c r="E2">
-        <v>0.6028140051356835</v>
+        <v>2.758985409112207</v>
       </c>
       <c r="F2">
-        <v>0.3140407230176452</v>
+        <v>2.78578550780152</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3491358409449706</v>
+        <v>0.08600705238178873</v>
       </c>
       <c r="C3">
-        <v>0.3876299128740889</v>
+        <v>1.123115432295725</v>
       </c>
       <c r="D3">
-        <v>0.2064515430844597</v>
+        <v>5.609313565901017</v>
       </c>
       <c r="E3">
-        <v>0.4543693905672561</v>
+        <v>2.368398945680608</v>
       </c>
       <c r="F3">
-        <v>0.3017614833873206</v>
+        <v>2.390387976856151</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2766139601088831</v>
+        <v>0.0363203761572407</v>
       </c>
       <c r="C4">
-        <v>0.3205523163110667</v>
+        <v>0.9693363125750792</v>
       </c>
       <c r="D4">
-        <v>0.1530262537301577</v>
+        <v>4.390696811956634</v>
       </c>
       <c r="E4">
-        <v>0.3911857023590685</v>
+        <v>2.095398962478658</v>
       </c>
       <c r="F4">
-        <v>0.287900825001641</v>
+        <v>2.116354596420031</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4245700094424397</v>
+        <v>0.1260652424010658</v>
       </c>
       <c r="C5">
-        <v>0.4393557528778729</v>
+        <v>1.03221972966461</v>
       </c>
       <c r="D5">
-        <v>0.2414648368369625</v>
+        <v>4.978658809889423</v>
       </c>
       <c r="E5">
-        <v>0.4913907170846459</v>
+        <v>2.231290839377382</v>
       </c>
       <c r="F5">
-        <v>0.2583974611168742</v>
+        <v>2.25081259337064</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3793378286036473</v>
+        <v>0.08428106382731648</v>
       </c>
       <c r="C6">
-        <v>0.4013254374874798</v>
+        <v>1.007929901751503</v>
       </c>
       <c r="D6">
-        <v>0.2006046709917273</v>
+        <v>5.095203452855081</v>
       </c>
       <c r="E6">
-        <v>0.4478891280124215</v>
+        <v>2.257255734925726</v>
       </c>
       <c r="F6">
-        <v>0.2497563433833</v>
+        <v>2.27955206241149</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3288324600564539</v>
+        <v>0.09619512034022865</v>
       </c>
       <c r="C7">
-        <v>0.3601674043196504</v>
+        <v>1.131065357075751</v>
       </c>
       <c r="D7">
-        <v>0.1589310008397884</v>
+        <v>5.749733647272278</v>
       </c>
       <c r="E7">
-        <v>0.3986615116107754</v>
+        <v>2.397860222630226</v>
       </c>
       <c r="F7">
-        <v>0.2375808962882351</v>
+        <v>2.42991643159901</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3582448599611742</v>
+        <v>0.1381149580396931</v>
       </c>
       <c r="C8">
-        <v>0.3844285013741874</v>
+        <v>1.187418322474588</v>
       </c>
       <c r="D8">
-        <v>0.1824260236518181</v>
+        <v>5.903068426619335</v>
       </c>
       <c r="E8">
-        <v>0.427113595723454</v>
+        <v>2.4296231038207</v>
       </c>
       <c r="F8">
-        <v>0.2466728085108265</v>
+        <v>2.461107737049912</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3532650510030724</v>
+        <v>0.1382699113425551</v>
       </c>
       <c r="C9">
-        <v>0.381336062820872</v>
+        <v>1.562389918879535</v>
       </c>
       <c r="D9">
-        <v>0.1830290214229363</v>
+        <v>9.831370974918348</v>
       </c>
       <c r="E9">
-        <v>0.4278189119509986</v>
+        <v>3.135501710240061</v>
       </c>
       <c r="F9">
-        <v>0.257976355866154</v>
+        <v>3.223266002762909</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3173063146244254</v>
+        <v>-0.7150897714758779</v>
       </c>
       <c r="C10">
-        <v>0.3418763137882747</v>
+        <v>1.341686922679743</v>
       </c>
       <c r="D10">
-        <v>0.1463084296434522</v>
+        <v>6.639370992174167</v>
       </c>
       <c r="E10">
-        <v>0.3825028491965154</v>
+        <v>2.576697691265735</v>
       </c>
       <c r="F10">
-        <v>0.2307148046110977</v>
+        <v>2.596308797503721</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3606037648954714</v>
+        <v>0.2236099196487949</v>
       </c>
       <c r="C11">
-        <v>0.379698193710172</v>
+        <v>0.5232375926460167</v>
       </c>
       <c r="D11">
-        <v>0.1799938953220499</v>
+        <v>0.3429526541974182</v>
       </c>
       <c r="E11">
-        <v>0.4242568742189688</v>
+        <v>0.5856215964233373</v>
       </c>
       <c r="F11">
-        <v>0.2448480836729456</v>
+        <v>0.6051355819484564</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
